--- a/src/test/resources/data/product_data.xlsx
+++ b/src/test/resources/data/product_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TestDROPII_NguyenThiNhung\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A9780B-43BD-4F91-97BC-C6371AF92FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4874DF39-2FCB-4351-916C-1F88B5460CE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AF71CE11-75C8-427E-8685-4697D47978F5}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>image_product</t>
   </si>
@@ -76,6 +76,18 @@
   </si>
   <si>
     <t>10ml</t>
+  </si>
+  <si>
+    <t>type_product</t>
+  </si>
+  <si>
+    <t>code_product</t>
+  </si>
+  <si>
+    <t>Nước Hoa</t>
+  </si>
+  <si>
+    <t>NHC035</t>
   </si>
 </sst>
 </file>
@@ -439,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0AB7B18-2302-4EDF-A5ED-1DC7793B7859}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -454,9 +466,11 @@
     <col min="6" max="6" width="13.44140625" customWidth="1"/>
     <col min="7" max="7" width="18.5546875" customWidth="1"/>
     <col min="8" max="8" width="14.21875" customWidth="1"/>
+    <col min="9" max="9" width="13.21875" customWidth="1"/>
+    <col min="10" max="10" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -478,8 +492,14 @@
       <c r="H1" t="s">
         <v>6</v>
       </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -501,12 +521,18 @@
       <c r="H2" t="s">
         <v>13</v>
       </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="E4" s="2"/>
     </row>
